--- a/docs/artefacts/[32.I.PM2-Template.v3].Stakeholders_Checklist.(ProjectName).(dd-mm-yyyy).(vx.x).xlsx
+++ b/docs/artefacts/[32.I.PM2-Template.v3].Stakeholders_Checklist.(ProjectName).(dd-mm-yyyy).(vx.x).xlsx
@@ -1,48 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\artefacts for cover page\OPM²_Artefacts.v3.0.1 with Cover Page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redelectrica-my.sharepoint.com/personal/adrian_sanchez_ree_es/Documents/Documentos/Code/github.com/adrisanchu/pm2/docs/artefacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AC9267-B335-4099-BABE-8B2840FD8B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{93AC9267-B335-4099-BABE-8B2840FD8B3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC37A013-109C-4C3F-9FB3-EEECF17CD52B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="5" r:id="rId1"/>
-    <sheet name="Initiating" sheetId="2" r:id="rId2"/>
-    <sheet name="Planning" sheetId="3" r:id="rId3"/>
-    <sheet name="Executing" sheetId="1" r:id="rId4"/>
-    <sheet name="Closing" sheetId="6" r:id="rId5"/>
-    <sheet name="Monitoring" sheetId="8" r:id="rId6"/>
+    <sheet name="checklist" sheetId="9" r:id="rId1"/>
+    <sheet name="Summary" sheetId="5" r:id="rId2"/>
+    <sheet name="Initiating" sheetId="2" r:id="rId3"/>
+    <sheet name="Planning" sheetId="3" r:id="rId4"/>
+    <sheet name="Executing" sheetId="1" r:id="rId5"/>
+    <sheet name="Closing" sheetId="6" r:id="rId6"/>
+    <sheet name="Monitoring" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Closing!$C$1:$F$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Executing!$C$1:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Monitoring!$C$1:$F$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Closing!$B$2:$F$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Executing!$B$2:$F$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Initiating!$B$2:$F$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Monitoring!$B$2:$F$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Planning!$B$2:$F$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$3:$Q$29</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">Closing!$4:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">Monitoring!$4:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">Planning!$4:$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Closing!$C$1:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Executing!$C$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Monitoring!$C$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Closing!$B$2:$F$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Executing!$B$2:$F$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Initiating!$B$2:$F$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Monitoring!$B$2:$F$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Planning!$B$2:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Summary!$B$3:$Q$29</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">Closing!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">Monitoring!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Planning!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="88">
   <si>
     <t>Comments</t>
   </si>
@@ -302,6 +300,18 @@
   </si>
   <si>
     <t>&lt;Name of the organisation and department.&gt;</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id_phase</t>
+  </si>
+  <si>
+    <t>id_question</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1161,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1540,6 +1550,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1631,42 +1677,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1697,11 +1707,12 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1733,7 +1744,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1915,7 +1926,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2007,7 +2018,7 @@
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="158217728"/>
@@ -2067,7 +2078,7 @@
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="154716416"/>
@@ -2145,7 +2156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2464,6 +2475,515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFE1E4-AC8C-46F1-9E81-1D64F4CB4142}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="169" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="169" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
@@ -2471,11 +2991,11 @@
   </sheetPr>
   <dimension ref="A2:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="40" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R2"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
@@ -2491,34 +3011,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
     </row>
     <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
@@ -2526,132 +3046,132 @@
       <c r="B4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="152"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
     </row>
     <row r="6" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="155"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="152"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="125"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="152"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="125"/>
     </row>
     <row r="9" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="158"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="152"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125"/>
     </row>
     <row r="12" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
     </row>
     <row r="14" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="147">
+      <c r="C15" s="156">
         <f>AVERAGE(D19,D20,D21,D22)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="149"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
     </row>
     <row r="16" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="144">
+      <c r="C16" s="153">
         <f>C15</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="146"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="155"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -2661,7 +3181,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -2687,11 +3207,11 @@
       </c>
       <c r="C19" s="105">
         <f>Initiating!F3</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D19" s="106">
         <f>Initiating!E3</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E19" s="107" t="str">
         <f>Initiating!F2</f>
@@ -2699,7 +3219,7 @@
       </c>
       <c r="F19" s="108" t="str">
         <f>IF(D19=0,"No","Yes")</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="G19" s="10"/>
       <c r="I19" s="11"/>
@@ -2805,78 +3325,78 @@
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
     </row>
     <row r="26" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="114">
         <v>0.3</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="134"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="143"/>
     </row>
     <row r="27" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="115">
         <v>0.7</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="134"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="143"/>
     </row>
     <row r="28" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="116">
         <v>0.9</v>
       </c>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="143"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
@@ -2897,13 +3417,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="B32:F32"/>
@@ -2920,6 +3433,13 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="C19">
     <cfRule type="iconSet" priority="6">
@@ -2969,7 +3489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFDA8F"/>
@@ -2977,10 +3497,10 @@
   <dimension ref="B1:L36"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1"/>
     <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
@@ -3015,11 +3535,11 @@
       <c r="D3" s="160"/>
       <c r="E3" s="92">
         <f>E13/(80-D13*10)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="93">
         <f>E3</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3047,11 +3567,11 @@
         <v>52</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="86">
+        <v>38</v>
+      </c>
+      <c r="E5" s="86" t="str">
         <f>IF(D5="Yes",10,IF(D5="Yes, Partially",5,IF(D5="No",0,"-")))</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="F5" s="85" t="s">
         <v>81</v>
@@ -3066,11 +3586,11 @@
         <v>48</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="86">
         <f t="shared" ref="E6:E12" si="0">IF(D6="Yes",10,IF(D6="Yes, Partially",5,IF(D6="No",0,"-")))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="74"/>
     </row>
@@ -3083,11 +3603,11 @@
         <v>42</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E7" s="86">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="74"/>
       <c r="L7" s="1" t="s">
@@ -3103,11 +3623,11 @@
         <v>49</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="86">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="74"/>
       <c r="L8" s="78" t="s">
@@ -3123,11 +3643,11 @@
         <v>72</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="86">
+        <v>38</v>
+      </c>
+      <c r="E9" s="86" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="F9" s="74"/>
       <c r="L9" s="1" t="s">
@@ -3163,11 +3683,11 @@
         <v>51</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="86">
+        <v>38</v>
+      </c>
+      <c r="E11" s="86" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="F11" s="74"/>
     </row>
@@ -3180,11 +3700,11 @@
         <v>73</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="77"/>
     </row>
@@ -3195,11 +3715,11 @@
       </c>
       <c r="D13" s="80">
         <f>COUNTIF(D5:D12,"N/A")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="88">
         <f>SUM(E5:E12)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F13" s="89"/>
     </row>
@@ -3377,7 +3897,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D36" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$7:$L$11</formula1>
     </dataValidation>
@@ -3396,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFF9B67F"/>
@@ -3404,10 +3924,10 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1"/>
     <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
@@ -3775,7 +4295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3783,10 +4303,10 @@
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
@@ -3990,7 +4510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="6"/>
@@ -3998,10 +4518,10 @@
   <dimension ref="B1:K51"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
@@ -4481,7 +5001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -4489,10 +5009,10 @@
   <dimension ref="B1:K50"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
